--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H2">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N2">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q2">
-        <v>45.7890409102187</v>
+        <v>578.0841001314193</v>
       </c>
       <c r="R2">
-        <v>45.7890409102187</v>
+        <v>5202.756901182774</v>
       </c>
       <c r="S2">
-        <v>0.0003415362729404415</v>
+        <v>0.003547850210586412</v>
       </c>
       <c r="T2">
-        <v>0.0003415362729404415</v>
+        <v>0.003547850210586412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H3">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q3">
-        <v>114.1789302731145</v>
+        <v>785.4030474310717</v>
       </c>
       <c r="R3">
-        <v>114.1789302731145</v>
+        <v>7068.627426879645</v>
       </c>
       <c r="S3">
-        <v>0.0008516502097143364</v>
+        <v>0.004820219699158078</v>
       </c>
       <c r="T3">
-        <v>0.0008516502097143364</v>
+        <v>0.004820219699158078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H4">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I4">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J4">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N4">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q4">
-        <v>104.6995709121192</v>
+        <v>754.5877026259096</v>
       </c>
       <c r="R4">
-        <v>104.6995709121192</v>
+        <v>6791.289323633187</v>
       </c>
       <c r="S4">
-        <v>0.0007809445342588173</v>
+        <v>0.004631098034107209</v>
       </c>
       <c r="T4">
-        <v>0.0007809445342588173</v>
+        <v>0.004631098034107209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H5">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I5">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J5">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N5">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q5">
-        <v>24.68223246992628</v>
+        <v>170.3447383819974</v>
       </c>
       <c r="R5">
-        <v>24.68223246992628</v>
+        <v>1533.102645437976</v>
       </c>
       <c r="S5">
-        <v>0.000184102517066412</v>
+        <v>0.001045449296743267</v>
       </c>
       <c r="T5">
-        <v>0.000184102517066412</v>
+        <v>0.001045449296743267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H6">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J6">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N6">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O6">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P6">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q6">
-        <v>19590.52709055076</v>
+        <v>37496.09633737658</v>
       </c>
       <c r="R6">
-        <v>19590.52709055076</v>
+        <v>337464.8670363893</v>
       </c>
       <c r="S6">
-        <v>0.1461239518111912</v>
+        <v>0.2301231486153784</v>
       </c>
       <c r="T6">
-        <v>0.1461239518111912</v>
+        <v>0.2301231486153785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H7">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J7">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P7">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q7">
-        <v>48850.67217440595</v>
+        <v>50943.36329860945</v>
       </c>
       <c r="R7">
-        <v>48850.67217440595</v>
+        <v>458490.2696874851</v>
       </c>
       <c r="S7">
-        <v>0.3643727008345906</v>
+        <v>0.3126524707492613</v>
       </c>
       <c r="T7">
-        <v>0.3643727008345906</v>
+        <v>0.3126524707492614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H8">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I8">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J8">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N8">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O8">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P8">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q8">
-        <v>44794.9932898718</v>
+        <v>48944.59679176182</v>
       </c>
       <c r="R8">
-        <v>44794.9932898718</v>
+        <v>440501.3711258564</v>
       </c>
       <c r="S8">
-        <v>0.3341217625547736</v>
+        <v>0.3003855286717672</v>
       </c>
       <c r="T8">
-        <v>0.3341217625547736</v>
+        <v>0.3003855286717673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H9">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I9">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J9">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N9">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O9">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P9">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q9">
-        <v>10560.12386905994</v>
+        <v>11049.01989085071</v>
       </c>
       <c r="R9">
-        <v>10560.12386905994</v>
+        <v>99441.17901765637</v>
       </c>
       <c r="S9">
-        <v>0.07876699918436665</v>
+        <v>0.06781066550285073</v>
       </c>
       <c r="T9">
-        <v>0.07876699918436665</v>
+        <v>0.06781066550285074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15430652481486</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H10">
-        <v>3.15430652481486</v>
+        <v>15.276403</v>
       </c>
       <c r="I10">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J10">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N10">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O10">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P10">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q10">
-        <v>24.6405269806857</v>
+        <v>76.0274361073451</v>
       </c>
       <c r="R10">
-        <v>24.6405269806857</v>
+        <v>684.2469249661059</v>
       </c>
       <c r="S10">
-        <v>0.0001837914396323089</v>
+        <v>0.0004665998513753779</v>
       </c>
       <c r="T10">
-        <v>0.0001837914396323089</v>
+        <v>0.0004665998513753779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.15430652481486</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H11">
-        <v>3.15430652481486</v>
+        <v>15.276403</v>
       </c>
       <c r="I11">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J11">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N11">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O11">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P11">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q11">
-        <v>61.44328328555662</v>
+        <v>103.2932405397506</v>
       </c>
       <c r="R11">
-        <v>61.44328328555662</v>
+        <v>929.639164857755</v>
       </c>
       <c r="S11">
-        <v>0.0004582998366731352</v>
+        <v>0.0006339370778711876</v>
       </c>
       <c r="T11">
-        <v>0.0004582998366731352</v>
+        <v>0.0006339370778711876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15430652481486</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H12">
-        <v>3.15430652481486</v>
+        <v>15.276403</v>
       </c>
       <c r="I12">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J12">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N12">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O12">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P12">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q12">
-        <v>56.34214105914032</v>
+        <v>99.24052285080587</v>
       </c>
       <c r="R12">
-        <v>56.34214105914032</v>
+        <v>893.1647056572531</v>
       </c>
       <c r="S12">
-        <v>0.0004202508828379717</v>
+        <v>0.0006090645112275091</v>
       </c>
       <c r="T12">
-        <v>0.0004202508828379717</v>
+        <v>0.0006090645112275091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15430652481486</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H13">
-        <v>3.15430652481486</v>
+        <v>15.276403</v>
       </c>
       <c r="I13">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J13">
-        <v>0.001161413529689958</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N13">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O13">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P13">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q13">
-        <v>13.28228770528905</v>
+        <v>22.40309621146045</v>
       </c>
       <c r="R13">
-        <v>13.28228770528905</v>
+        <v>201.627865903144</v>
       </c>
       <c r="S13">
-        <v>9.907137054654255E-05</v>
+        <v>0.0001374935404615839</v>
       </c>
       <c r="T13">
-        <v>9.907137054654255E-05</v>
+        <v>0.0001374935404615839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>199.063207891447</v>
+        <v>201.6251223333333</v>
       </c>
       <c r="H14">
-        <v>199.063207891447</v>
+        <v>604.875367</v>
       </c>
       <c r="I14">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="J14">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N14">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O14">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P14">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q14">
-        <v>1555.023998563026</v>
+        <v>3010.337140064937</v>
       </c>
       <c r="R14">
-        <v>1555.023998563026</v>
+        <v>27093.03426058443</v>
       </c>
       <c r="S14">
-        <v>0.01159878194093456</v>
+        <v>0.01847521018808074</v>
       </c>
       <c r="T14">
-        <v>0.01159878194093456</v>
+        <v>0.01847521018808074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>199.063207891447</v>
+        <v>201.6251223333333</v>
       </c>
       <c r="H15">
-        <v>199.063207891447</v>
+        <v>604.875367</v>
       </c>
       <c r="I15">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="J15">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N15">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O15">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P15">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q15">
-        <v>3877.586714539014</v>
+        <v>4089.937715056411</v>
       </c>
       <c r="R15">
-        <v>3877.586714539014</v>
+        <v>36809.43943550769</v>
       </c>
       <c r="S15">
-        <v>0.02892256505402095</v>
+        <v>0.02510099547859808</v>
       </c>
       <c r="T15">
-        <v>0.02892256505402095</v>
+        <v>0.02510099547859808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>199.063207891447</v>
+        <v>201.6251223333333</v>
       </c>
       <c r="H16">
-        <v>199.063207891447</v>
+        <v>604.875367</v>
       </c>
       <c r="I16">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="J16">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N16">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O16">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P16">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q16">
-        <v>3555.661838972095</v>
+        <v>3929.468715944002</v>
       </c>
       <c r="R16">
-        <v>3555.661838972095</v>
+        <v>35365.21844349601</v>
       </c>
       <c r="S16">
-        <v>0.02652135681767626</v>
+        <v>0.02411615612362512</v>
       </c>
       <c r="T16">
-        <v>0.02652135681767626</v>
+        <v>0.02411615612362512</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>199.063207891447</v>
+        <v>201.6251223333333</v>
       </c>
       <c r="H17">
-        <v>199.063207891447</v>
+        <v>604.875367</v>
       </c>
       <c r="I17">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="J17">
-        <v>0.07329493855140831</v>
+        <v>0.07313647423921157</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N17">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O17">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P17">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q17">
-        <v>838.2237990986476</v>
+        <v>887.0596725448686</v>
       </c>
       <c r="R17">
-        <v>838.2237990986476</v>
+        <v>7983.537052903816</v>
       </c>
       <c r="S17">
-        <v>0.006252234738776542</v>
+        <v>0.005444112448907632</v>
       </c>
       <c r="T17">
-        <v>0.006252234738776542</v>
+        <v>0.005444112448907632</v>
       </c>
     </row>
   </sheetData>
